--- a/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
+++ b/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
@@ -9,26 +9,17 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="船舶" sheetId="3" r:id="rId3"/>
-    <sheet name="汽車" sheetId="4" r:id="rId4"/>
-    <sheet name="航空器" sheetId="5" r:id="rId5"/>
-    <sheet name="現金" sheetId="6" r:id="rId6"/>
-    <sheet name="存款" sheetId="7" r:id="rId7"/>
-    <sheet name="股票" sheetId="8" r:id="rId8"/>
-    <sheet name="債券" sheetId="9" r:id="rId9"/>
-    <sheet name="基金受益憑證" sheetId="10" r:id="rId10"/>
-    <sheet name="其他有價證券" sheetId="11" r:id="rId11"/>
-    <sheet name="具有相當價值之財產" sheetId="12" r:id="rId12"/>
-    <sheet name="債權" sheetId="13" r:id="rId13"/>
-    <sheet name="債務" sheetId="14" r:id="rId14"/>
-    <sheet name="事業投資" sheetId="15" r:id="rId15"/>
+    <sheet name="汽車" sheetId="3" r:id="rId3"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="具有相當價值之財產" sheetId="5" r:id="rId5"/>
+    <sheet name="債務" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
   <si>
     <t>土地坐落</t>
   </si>
@@ -144,36 +135,15 @@
     <t>200’000(超過 五年）</t>
   </si>
   <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>總</t>
-  </si>
-  <si>
-    <t>嘲數</t>
-  </si>
-  <si>
-    <t>船</t>
-  </si>
-  <si>
-    <t>籍</t>
-  </si>
-  <si>
-    <t>港</t>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
     <t>TOYOTA</t>
   </si>
   <si>
@@ -189,45 +159,18 @@
     <t>1,090,000(超 過五年）</t>
   </si>
   <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
-  </si>
-  <si>
-    <t>幣</t>
-  </si>
-  <si>
-    <t>別</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
+    <t>存放機構(應敘明分支機構）</t>
+  </si>
+  <si>
+    <t>種類</t>
+  </si>
+  <si>
+    <t>幣別</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
@@ -237,48 +180,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>股</t>
-  </si>
-  <si>
-    <t>數</t>
-  </si>
-  <si>
-    <t>票面價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>代碼</t>
-  </si>
-  <si>
-    <t>買賣機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>'額</t>
-  </si>
-  <si>
     <t>財產種類</t>
   </si>
   <si>
@@ -288,9 +189,6 @@
     <t>件</t>
   </si>
   <si>
-    <t>額</t>
-  </si>
-  <si>
     <t>保 險公司</t>
   </si>
   <si>
@@ -312,16 +210,13 @@
     <t>備 註</t>
   </si>
   <si>
-    <t>債</t>
-  </si>
-  <si>
-    <t>權</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
-  </si>
-  <si>
-    <t>餘</t>
+    <t>債務人</t>
+  </si>
+  <si>
+    <t>債權人及地址</t>
+  </si>
+  <si>
+    <t>餘額</t>
   </si>
   <si>
     <t>取得（發生）時間</t>
@@ -330,15 +225,6 @@
     <t>取得（發生）原因</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -358,18 +244,6 @@
   </si>
   <si>
     <t>88年04月 01日</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
   </si>
 </sst>
 </file>
@@ -918,356 +792,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>84</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>94</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="2">
-        <v>430671</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>95</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4152495</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>96</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2587777</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
@@ -1436,54 +960,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:12">
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1492,13 +968,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1515,7 +991,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>2995</v>
@@ -1524,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1538,7 +1014,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>3498</v>
@@ -1547,13 +1023,63 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="2">
         <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>673238</v>
       </c>
     </row>
   </sheetData>
@@ -1563,13 +1089,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1580,17 +1106,55 @@
         <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>84</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1599,43 +1163,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1643,130 +1171,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>430671</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>673238</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="2">
+        <v>4152495</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>96</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="E4" s="2">
+        <v>2587777</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
+      <c r="G4" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
+++ b/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
@@ -19,9 +19,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺東縣池上鄉萬福段1037Q000地號</t>
+  </si>
+  <si>
+    <t>臺東縣池上鄉萬福段10360000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市裕民段04660000地號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市新田段06440000地號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市新田段06420000地號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市新田段06430000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>100000分之10019</t>
+  </si>
+  <si>
+    <t>林正二</t>
+  </si>
+  <si>
+    <t>92年12月29日</t>
+  </si>
+  <si>
+    <t>88年02月06日</t>
+  </si>
+  <si>
+    <t>98年05月12日</t>
+  </si>
+  <si>
+    <t>98年02月10日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>DietS貝賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>貝買</t>
+  </si>
+  <si>
+    <t>40000(超過五年）</t>
+  </si>
+  <si>
+    <t>250000(超過五年）</t>
+  </si>
+  <si>
+    <t>1035000(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-12</t>
+  </si>
+  <si>
+    <t>tmp32921</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,97 +156,34 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺東縣池上鄉萬福段1037-Q000 地號</t>
-  </si>
-  <si>
-    <t>臺東縣池上鄉萬福段1036-0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市裕民段0466-0000 地號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市新田段0644-0000 地號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市新田段0642-0000 地號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市新田段0643-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>100000 分 之 10019</t>
-  </si>
-  <si>
-    <t>林正二</t>
-  </si>
-  <si>
-    <t>92年12月 29日</t>
-  </si>
-  <si>
-    <t>88年02月 06日</t>
-  </si>
-  <si>
-    <t>98年05月 12日</t>
-  </si>
-  <si>
-    <t>98年02月 10日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>Diet'S^ 貝賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>貝買</t>
-  </si>
-  <si>
-    <t>40,000 (超過 五年）</t>
-  </si>
-  <si>
-    <t>250，000(超過 五年）</t>
-  </si>
-  <si>
-    <t>1，035,000(超 過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺東縣池上鄉萬福段00026-000 建號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市裕民段02186-000 建號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市裕民段02187-000 建號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市裕民段02188-000 建號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市新田段00060-000 建號</t>
-  </si>
-  <si>
-    <t>99年07月 22日</t>
-  </si>
-  <si>
-    <t>4，000，000(超 過五年）</t>
-  </si>
-  <si>
-    <t>6,000,000(超 過五年）</t>
-  </si>
-  <si>
-    <t>4，900，000(超 過五年）</t>
-  </si>
-  <si>
-    <t>200’000(超過 五年）</t>
+    <t>臺東縣池上鄉萬福段00026000建號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市裕民段02186000建號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市裕民段02187000建號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市裕民段02188000建號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市新田段00060000建號</t>
+  </si>
+  <si>
+    <t>99年07月22日</t>
+  </si>
+  <si>
+    <t>4000000(超過五年）</t>
+  </si>
+  <si>
+    <t>6000000(超過五年）</t>
+  </si>
+  <si>
+    <t>4900000(超過五年）</t>
+  </si>
+  <si>
+    <t>200000(超過五年）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -150,13 +201,13 @@
     <t>NISSAN</t>
   </si>
   <si>
-    <t>93年08月 05日</t>
-  </si>
-  <si>
-    <t>99年02月 09日</t>
-  </si>
-  <si>
-    <t>1,090,000(超 過五年）</t>
+    <t>93年08月05日</t>
+  </si>
+  <si>
+    <t>99年02月09日</t>
+  </si>
+  <si>
+    <t>1090000(超過五年）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -183,19 +234,19 @@
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/</t>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>保 險公司</t>
+    <t>保險公司</t>
   </si>
   <si>
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>保 險名稱</t>
+    <t>保險名稱</t>
   </si>
   <si>
     <t>生存還本保險</t>
@@ -207,7 +258,7 @@
     <t>要保人</t>
   </si>
   <si>
-    <t>備 註</t>
+    <t>備註</t>
   </si>
   <si>
     <t>債務人</t>
@@ -228,22 +279,22 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>台灣土地銀行台東分行 臺東縣台東市中華路</t>
-  </si>
-  <si>
-    <t>台灣土地銀行花蓮分行 花蓮縣花蓮市中山路</t>
-  </si>
-  <si>
-    <t>華南銀行花蓮分行 花蓮縣花蓮市中山路</t>
-  </si>
-  <si>
-    <t>83年04月 30日</t>
-  </si>
-  <si>
-    <t>88年04月 07日</t>
-  </si>
-  <si>
-    <t>88年04月 01日</t>
+    <t>台灣土地銀行台東分行臺東縣台東市中華路</t>
+  </si>
+  <si>
+    <t>台灣土地銀行花蓮分行花蓮縣花蓮市中山路</t>
+  </si>
+  <si>
+    <t>華南銀行花蓮分行花蓮縣花蓮市中山路</t>
+  </si>
+  <si>
+    <t>83年04月30日</t>
+  </si>
+  <si>
+    <t>88年04月07日</t>
+  </si>
+  <si>
+    <t>88年04月01日</t>
   </si>
 </sst>
 </file>
@@ -602,13 +653,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,161 +681,308 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>11.22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>788</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>88.56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>788</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>690</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>788</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>5503.57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>788</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>1517.68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2">
+        <v>788</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>260.41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2">
         <v>500000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2">
+        <v>788</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -802,25 +1000,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -828,25 +1026,25 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>152.26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -854,25 +1052,25 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>208.23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -880,25 +1078,25 @@
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>149.83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -906,25 +1104,25 @@
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>56.67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -932,22 +1130,22 @@
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <v>119.14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2">
         <v>900000</v>
@@ -968,22 +1166,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -991,22 +1189,22 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>2995</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1014,19 +1212,19 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2">
         <v>3498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2">
         <v>1000000</v>
@@ -1047,19 +1245,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1067,16 +1265,16 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2">
         <v>673238</v>
@@ -1097,16 +1295,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1114,16 +1312,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1131,13 +1329,13 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1146,13 +1344,13 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1171,22 +1369,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1194,22 +1392,22 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>430671</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1217,22 +1415,22 @@
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2">
         <v>4152495</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1240,22 +1438,22 @@
         <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>2587777</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
+++ b/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺東縣池上鄉萬福段1037Q000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺東縣池上鄉萬福段10360000地號</t>
@@ -102,21 +105,18 @@
     <t>98年02月10日</t>
   </si>
   <si>
+    <t>DietS貝賣</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>DietS貝賣</t>
-  </si>
-  <si>
     <t>貝賣</t>
   </si>
   <si>
     <t>貝買</t>
   </si>
   <si>
-    <t>40000(超過五年）</t>
-  </si>
-  <si>
     <t>250000(超過五年）</t>
   </si>
   <si>
@@ -135,30 +135,12 @@
     <t>tmp32921</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺東縣池上鄉萬福段00026000建號</t>
   </si>
   <si>
+    <t>4000000(超過五年）</t>
+  </si>
+  <si>
     <t>花蓮縣花蓮市裕民段02186000建號</t>
   </si>
   <si>
@@ -174,9 +156,6 @@
     <t>99年07月22日</t>
   </si>
   <si>
-    <t>4000000(超過五年）</t>
-  </si>
-  <si>
     <t>6000000(超過五年）</t>
   </si>
   <si>
@@ -186,42 +165,21 @@
     <t>200000(超過五年）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>TOYOTA</t>
   </si>
   <si>
+    <t>93年08月05日</t>
+  </si>
+  <si>
+    <t>1090000(超過五年）</t>
+  </si>
+  <si>
     <t>NISSAN</t>
   </si>
   <si>
-    <t>93年08月05日</t>
-  </si>
-  <si>
     <t>99年02月09日</t>
   </si>
   <si>
-    <t>1090000(超過五年）</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
@@ -231,64 +189,40 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
+    <t>保險名稱</t>
+  </si>
+  <si>
+    <t>要保人</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
     <t>生存還本保險</t>
   </si>
   <si>
     <t>年金保險</t>
   </si>
   <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>台灣土地銀行台東分行臺東縣台東市中華路</t>
   </si>
   <si>
+    <t>83年04月30日</t>
+  </si>
+  <si>
     <t>台灣土地銀行花蓮分行花蓮縣花蓮市中山路</t>
   </si>
   <si>
     <t>華南銀行花蓮分行花蓮縣花蓮市中山路</t>
-  </si>
-  <si>
-    <t>83年04月30日</t>
   </si>
   <si>
     <t>88年04月07日</t>
@@ -653,13 +587,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,31 +636,37 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>11.22</v>
+        <v>88.56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>34</v>
@@ -738,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>788</v>
@@ -747,33 +687,39 @@
         <v>37</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>88.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>88.56</v>
+        <v>690</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>34</v>
@@ -785,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>788</v>
@@ -794,33 +740,39 @@
         <v>37</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.10019</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>69.1311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>690</v>
+        <v>5503.57</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1500000</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>34</v>
@@ -832,7 +784,7 @@
         <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>788</v>
@@ -841,33 +793,39 @@
         <v>37</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>5503.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>5503.57</v>
+        <v>1517.68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2">
-        <v>1500000</v>
+        <v>500000</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>34</v>
@@ -879,7 +837,7 @@
         <v>36</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2">
         <v>788</v>
@@ -888,30 +846,36 @@
         <v>37</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1517.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1517.68</v>
+        <v>260.41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2">
         <v>500000</v>
@@ -926,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="2">
         <v>788</v>
@@ -935,54 +899,13 @@
         <v>37</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
         <v>260.41</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2">
-        <v>500000</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="2">
-        <v>788</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="2">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +915,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1002,152 +925,126 @@
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>152.26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>208.23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="2">
-        <v>152.26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2">
+        <v>149.83</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="2">
-        <v>208.23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2">
+        <v>56.67</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" s="2">
-        <v>149.83</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2">
-        <v>56.67</v>
+        <v>119.14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2">
-        <v>119.14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2">
         <v>900000</v>
       </c>
     </row>
@@ -1157,6 +1054,149 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2995</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3498</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1">
+        <v>673238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1166,294 +1206,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
+      </c>
+      <c r="E1" s="1">
+        <v>430671</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2995</v>
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4152495</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3498</v>
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>55</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F3" s="2">
+        <v>2587777</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2">
-        <v>673238</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>84</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>94</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="2">
-        <v>430671</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>95</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4152495</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>96</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2587777</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
+++ b/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺東縣池上鄉萬福段1037Q000地號</t>
+  </si>
+  <si>
     <t>臺東縣池上鄉萬福段10360000地號</t>
   </si>
   <si>
@@ -105,18 +108,21 @@
     <t>98年02月10日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>DietS貝賣</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>貝賣</t>
   </si>
   <si>
     <t>貝買</t>
   </si>
   <si>
+    <t>40000(超過五年）</t>
+  </si>
+  <si>
     <t>250000(超過五年）</t>
   </si>
   <si>
@@ -138,22 +144,22 @@
     <t>臺東縣池上鄉萬福段00026000建號</t>
   </si>
   <si>
+    <t>花蓮縣花蓮市裕民段02186000建號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市裕民段02187000建號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市裕民段02188000建號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市新田段00060000建號</t>
+  </si>
+  <si>
+    <t>99年07月22日</t>
+  </si>
+  <si>
     <t>4000000(超過五年）</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市裕民段02186000建號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市裕民段02187000建號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市裕民段02188000建號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市新田段00060000建號</t>
-  </si>
-  <si>
-    <t>99年07月22日</t>
   </si>
   <si>
     <t>6000000(超過五年）</t>
@@ -587,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,266 +651,319 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>88.56</v>
+        <v>11.22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>788</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>88.56</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>690</v>
+        <v>88.56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>788</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.10019</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>69.1311</v>
+        <v>88.56</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>5503.57</v>
+        <v>690</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1500000</v>
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>788</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0.10019</v>
       </c>
       <c r="Q4" s="2">
-        <v>5503.57</v>
+        <v>69.1311</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1517.68</v>
+        <v>5503.57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="2">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>788</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>1517.68</v>
+        <v>5503.57</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>260.41</v>
+        <v>1517.68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2">
         <v>500000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2">
         <v>788</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
+        <v>1517.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>260.41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2">
+        <v>500000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>788</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>260.41</v>
       </c>
     </row>
@@ -915,50 +974,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1">
-        <v>152.26</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="2">
-        <v>208.23</v>
+        <v>152.26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -967,85 +1053,246 @@
         <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>788</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>152.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="2">
-        <v>149.83</v>
+        <v>208.23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>788</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2">
+        <v>25</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>208.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="2">
-        <v>56.67</v>
+        <v>149.83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>788</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2">
+        <v>26</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>149.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="2">
-        <v>119.14</v>
+        <v>56.67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2">
+        <v>788</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2">
+        <v>27</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>56.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2">
+        <v>119.14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2">
         <v>900000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>788</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2">
+        <v>28</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>119.14</v>
       </c>
     </row>
   </sheetData>
@@ -1054,149 +1301,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2995</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3498</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1">
-        <v>673238</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1206,68 +1310,294 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2995</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2995</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3498</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1">
+        <v>673238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2">
+        <v>673238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>84</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1">
         <v>430671</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F2" s="2">
-        <v>4152495</v>
+        <v>430671</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4152495</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>96</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2">
         <v>2587777</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>69</v>
+      <c r="G4" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
+++ b/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -171,19 +171,22 @@
     <t>200000(超過五年）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>TOYOTA</t>
   </si>
   <si>
+    <t>NISSAN</t>
+  </si>
+  <si>
     <t>93年08月05日</t>
   </si>
   <si>
+    <t>99年02月09日</t>
+  </si>
+  <si>
     <t>1090000(超過五年）</t>
-  </si>
-  <si>
-    <t>NISSAN</t>
-  </si>
-  <si>
-    <t>99年02月09日</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -1302,38 +1305,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1">
-        <v>2995</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>2995</v>
@@ -1342,21 +1366,42 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>788</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2">
         <v>3498</v>
@@ -1372,6 +1417,27 @@
       </c>
       <c r="G3" s="2">
         <v>1000000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>788</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1389,13 +1455,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
@@ -1409,13 +1475,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1439,16 +1505,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1456,16 +1522,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1473,10 +1539,10 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
@@ -1488,10 +1554,10 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -1513,22 +1579,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1">
         <v>430671</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1536,22 +1602,22 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2">
         <v>430671</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1559,22 +1625,22 @@
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2">
         <v>4152495</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1582,22 +1648,22 @@
         <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2">
         <v>2587777</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
+++ b/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -171,6 +171,9 @@
     <t>200000(超過五年）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
   </si>
   <si>
     <t>1090000(超過五年）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -1059,7 +1065,7 @@
         <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>37</v>
@@ -1112,7 +1118,7 @@
         <v>47</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>37</v>
@@ -1165,7 +1171,7 @@
         <v>48</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>37</v>
@@ -1218,7 +1224,7 @@
         <v>49</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>37</v>
@@ -1271,7 +1277,7 @@
         <v>900000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>37</v>
@@ -1316,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1354,10 +1360,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>2995</v>
@@ -1366,16 +1372,16 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -1393,15 +1399,15 @@
         <v>39</v>
       </c>
       <c r="N2" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2">
         <v>3498</v>
@@ -1410,7 +1416,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>29</v>
@@ -1419,7 +1425,7 @@
         <v>1000000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>37</v>
@@ -1437,7 +1443,7 @@
         <v>39</v>
       </c>
       <c r="N3" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1455,13 +1461,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
@@ -1472,16 +1478,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1505,44 +1511,44 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
@@ -1551,13 +1557,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -1579,91 +1585,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>430671</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2">
         <v>430671</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2">
         <v>4152495</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2">
         <v>2587777</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
+++ b/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -195,6 +195,15 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
@@ -202,6 +211,9 @@
   </si>
   <si>
     <t>新臺幣</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1453,13 +1465,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1470,30 +1482,72 @@
         <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1">
-        <v>673238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>673238</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2">
+        <v>788</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1511,16 +1565,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1528,16 +1582,16 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1545,10 +1599,10 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
@@ -1560,10 +1614,10 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -1585,22 +1639,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1">
         <v>430671</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1608,22 +1662,22 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2">
         <v>430671</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1631,22 +1685,22 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2">
         <v>4152495</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1654,22 +1708,22 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2">
         <v>2587777</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
+++ b/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
@@ -11,7 +11,7 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="具有相當價值之財產" sheetId="5" r:id="rId5"/>
+    <sheet name="保險" sheetId="5" r:id="rId5"/>
     <sheet name="債務" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -214,18 +214,6 @@
   </si>
   <si>
     <t>deposit</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -1557,13 +1545,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1571,15 +1559,12 @@
         <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>65</v>
@@ -1588,41 +1573,22 @@
         <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>81</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>82</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1639,22 +1605,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>430671</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1662,22 +1628,22 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2">
         <v>430671</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1685,22 +1651,22 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2">
         <v>4152495</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1708,22 +1674,22 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F4" s="2">
         <v>2587777</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
+++ b/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -216,6 +216,9 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
@@ -225,25 +228,37 @@
     <t>年金保險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>台灣土地銀行台東分行臺東縣台東市中華路</t>
   </si>
   <si>
+    <t>台灣土地銀行花蓮分行花蓮縣花蓮市中山路</t>
+  </si>
+  <si>
+    <t>華南銀行花蓮分行花蓮縣花蓮市中山路</t>
+  </si>
+  <si>
     <t>83年04月30日</t>
   </si>
   <si>
-    <t>台灣土地銀行花蓮分行花蓮縣花蓮市中山路</t>
-  </si>
-  <si>
-    <t>華南銀行花蓮分行花蓮縣花蓮市中山路</t>
-  </si>
-  <si>
     <t>88年04月07日</t>
   </si>
   <si>
     <t>88年04月01日</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1545,49 +1560,112 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2">
+        <v>788</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2">
+        <v>788</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1597,99 +1675,183 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1">
-        <v>430671</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="2">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2">
         <v>430671</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>788</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="2">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2">
         <v>4152495</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>788</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2587777</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="2">
-        <v>2587777</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>74</v>
+      <c r="H4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2">
+        <v>788</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="2">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
+++ b/legislator/property/output/normal/林正二_2012-04-12_財產申報表_tmp32921.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -109,15 +109,6 @@
   </si>
   <si>
     <t>買賣</t>
-  </si>
-  <si>
-    <t>DietS貝賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>貝買</t>
   </si>
   <si>
     <t>40000(超過五年）</t>
@@ -696,16 +687,16 @@
         <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>24</v>
@@ -714,7 +705,7 @@
         <v>788</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2">
         <v>14</v>
@@ -746,19 +737,19 @@
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
@@ -767,7 +758,7 @@
         <v>788</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2">
         <v>15</v>
@@ -802,16 +793,16 @@
         <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
@@ -820,7 +811,7 @@
         <v>788</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2">
         <v>16</v>
@@ -852,19 +843,19 @@
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2">
         <v>1500000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
@@ -873,7 +864,7 @@
         <v>788</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2">
         <v>17</v>
@@ -905,19 +896,19 @@
         <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2">
         <v>500000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>24</v>
@@ -926,7 +917,7 @@
         <v>788</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O6" s="2">
         <v>18</v>
@@ -964,13 +955,13 @@
         <v>500000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>24</v>
@@ -979,7 +970,7 @@
         <v>788</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O7" s="2">
         <v>19</v>
@@ -1059,7 +1050,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>152.26</v>
@@ -1077,16 +1068,16 @@
         <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>24</v>
@@ -1095,7 +1086,7 @@
         <v>788</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2">
         <v>24</v>
@@ -1112,7 +1103,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>208.23</v>
@@ -1130,16 +1121,16 @@
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
@@ -1148,7 +1139,7 @@
         <v>788</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2">
         <v>25</v>
@@ -1165,7 +1156,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
         <v>149.83</v>
@@ -1183,16 +1174,16 @@
         <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
@@ -1201,7 +1192,7 @@
         <v>788</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2">
         <v>26</v>
@@ -1218,7 +1209,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
         <v>56.67</v>
@@ -1236,16 +1227,16 @@
         <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
@@ -1254,7 +1245,7 @@
         <v>788</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2">
         <v>27</v>
@@ -1271,7 +1262,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>119.14</v>
@@ -1283,7 +1274,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>29</v>
@@ -1292,13 +1283,13 @@
         <v>900000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>24</v>
@@ -1307,7 +1298,7 @@
         <v>788</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O6" s="2">
         <v>28</v>
@@ -1337,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1378,7 +1369,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <v>2995</v>
@@ -1387,22 +1378,22 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>24</v>
@@ -1411,7 +1402,7 @@
         <v>788</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2">
         <v>38</v>
@@ -1422,7 +1413,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
         <v>3498</v>
@@ -1431,7 +1422,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>29</v>
@@ -1440,13 +1431,13 @@
         <v>1000000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>24</v>
@@ -1455,7 +1446,7 @@
         <v>788</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2">
         <v>39</v>
@@ -1476,13 +1467,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1517,13 +1508,13 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1532,13 +1523,13 @@
         <v>673238</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>24</v>
@@ -1547,7 +1538,7 @@
         <v>788</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2">
         <v>53</v>
@@ -1568,7 +1559,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1603,22 +1594,22 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>24</v>
@@ -1627,7 +1618,7 @@
         <v>788</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2">
         <v>81</v>
@@ -1638,22 +1629,22 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>24</v>
@@ -1662,7 +1653,7 @@
         <v>788</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2">
         <v>82</v>
@@ -1683,10 +1674,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1727,31 +1718,31 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>430671</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>24</v>
@@ -1760,7 +1751,7 @@
         <v>788</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2">
         <v>92</v>
@@ -1771,31 +1762,31 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2">
         <v>4152495</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>24</v>
@@ -1804,7 +1795,7 @@
         <v>788</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2">
         <v>93</v>
@@ -1815,31 +1806,31 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="E4" s="2">
         <v>2587777</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>24</v>
@@ -1848,7 +1839,7 @@
         <v>788</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N4" s="2">
         <v>94</v>
